--- a/public/data/yield_loss/yield_table_sierra_leone.xlsx
+++ b/public/data/yield_loss/yield_table_sierra_leone.xlsx
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3408.59</v>
+        <v>3402.77</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1807.87</v>
+        <v>1700.37</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5696.96</v>
+        <v>5689.51</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3965.84</v>
+        <v>3865.04</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>330.72</v>
       </c>
       <c r="U5" t="n">
-        <v>17.14</v>
+        <v>16.42</v>
       </c>
       <c r="V5" t="n">
         <v>71.12</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3902.48</v>
+        <v>3874.77</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3691.2</v>
+        <v>3687.16</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>5017.67</v>
+        <v>4681.99</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1563.8</v>
+        <v>1561</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>143.41</v>
+        <v>142.63</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>404.08</v>
+        <v>403.72</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1772,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>34156.42</v>
+        <v>27786.5</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2906.92</v>
+        <v>2906.83</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3757.89</v>
+        <v>3757.78</v>
       </c>
       <c r="Q9" t="n">
         <v>77.62</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1344.66</v>
+        <v>1344.61</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9679.28</v>
+        <v>9508.36</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>23863.47</v>
+        <v>19477.32</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3153.61</v>
+        <v>3144.2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1469.65</v>
+        <v>1468.07</v>
       </c>
       <c r="Q11" t="n">
-        <v>291.45</v>
+        <v>289.69</v>
       </c>
       <c r="R11" t="n">
         <v>127.65</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>652.47</v>
+        <v>651.79</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>10774.82</v>
+        <v>10721.12</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12420.79</v>
+        <v>12166.67</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
